--- a/excel/AVLIST_2.xlsx
+++ b/excel/AVLIST_2.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ONSD—783</t>
+          <t>ONSD-783</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ONSD—783 そら—蒼井そら写真集</t>
+          <t>ONSD-783 そら—蒼井そら写真集</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PPPE-089</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRED-468 [中文字幕] もう一度、妻と愛し合う。倦怠期だった私達夫婦が久しぶりにSEXしたら…やっぱり、体の相性抜群で何度も、何度も、中出し求めて… 楪カレン</t>
+          <t>PPPE-089 [中文字幕] 会社の飲み会で終電を逃した僕に「うちに泊まっていきます？」と巨乳の後輩女子が小悪魔な囁き。部屋着の胸チラ誘惑に負けて何度もSEXした 楪カレン</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRED-501 [中文字幕] 彼女が至近距離にいるのに密着＆ゾクゾク囁き！背徳感で気持ちよすぎる中出し誘惑 楪カレン</t>
+          <t>SONE-618 [中文字幕] 超濃厚SEX契約 成績不振の生保レディは異常精力オヤジが住むボロ屋敷に出向き媚薬で絶倫にさせられケダモノ交尾 miru</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>BLK-621</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRED-506 [中文字幕] 僕をダメにする痴女セフレお姉さん 即フェラごっくん＆杭打ち中出しで朝まで何度も射精され続けて… 楪カレン</t>
+          <t>BLK-621 絶倫の僕でも音を上げるW性欲モンスターギャルと巣ごもりハーレム生活 森日向子 朝日奈かれん</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PPPE-311</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRED-428 [中文字幕] 風俗イクほどセックス好きだったんだ？ キミ（彼氏）が2度と風俗行けないように10発中出ししても止めない騎乗位で生ハメしまくってヤルからな！ 楪カレン</t>
+          <t>PPPE-311  [中文字幕] 隣家の育乳中ノーブラ人妻のおっぱいタッチ誘惑に理性ぶっ飛び果てるまで生ハメサポート不倫 森日向子</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-457</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PPPE-244 [中文字幕] 店長の僕は巨乳バイトのノーブラ誘惑に負けてまだ女子〇生なのに理性を保てず喰べてしまった 楪カレン</t>
+          <t>PRED-457 [中文字幕] 綺麗なお姉さんがアナタの五感を刺激するしっとり囁き愛情オナニーサポート 楪カレン</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-468</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YMDS-202 [中文字幕] いちゃラブ密着特濃せっくちゅ 憧れの白石ももを独占した一夜。</t>
+          <t>PRED-468 [中文字幕] もう一度、妻と愛し合う。倦怠期だった私達夫婦が久しぶりにSEXしたら…やっぱり、体の相性抜群で何度も、何度も、中出し求めて… 楪カレン</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-501</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JUR-237 [中文字幕]「風俗経験なし」と言っていた婚約者が凄テク過ぎて疑心暗鬼にヌカれまくる僕。 明里つむぎ</t>
+          <t>PRED-501 [中文字幕] 彼女が至近距離にいるのに密着＆ゾクゾク囁き！背徳感で気持ちよすぎる中出し誘惑 楪カレン</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-506</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IPZZ-506 [中文字幕] 美人家庭教師みつり先生の接吻レクチャー個人レッスン 長浜みつり</t>
+          <t>PRED-506 [中文字幕] 僕をダメにする痴女セフレお姉さん 即フェラごっくん＆杭打ち中出しで朝まで何度も射精され続けて… 楪カレン</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-428</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DGCEMD-515 ★配信限定！特典映像付★凄テクで男を飼い慣らす女はこの世に存在する 愛瀬ゆうり</t>
+          <t>PRED-428 [中文字幕] 風俗イクほどセックス好きだったんだ？ キミ（彼氏）が2度と風俗行けないように10発中出ししても止めない騎乗位で生ハメしまくってヤルからな！ 楪カレン</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PPPE-244</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FPRE-149 [中文字幕] 結婚5年目！失禁ヌードモデルNTR 上司に爆乳ボデイを喰われ悦ぶ妻の衝撃浮気映像 宝田もなみ</t>
+          <t>PPPE-244 [中文字幕] 店長の僕は巨乳バイトのノーブラ誘惑に負けてまだ女子〇生なのに理性を保てず喰べてしまった 楪カレン</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>YMDS-202</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SONE-258 [中文字幕] 今いちばん抱きたいカラダ 川越にこ、理性吹き飛ぶ。[禁欲×媚薬漬け]童顔悶える異常絶頂アクメ</t>
+          <t>YMDS-202 [中文字幕] いちゃラブ密着特濃せっくちゅ 憧れの白石ももを独占した一夜。</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-237</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SONE-627 [中文字幕] 毎朝同じ車両に乗るJcup巨乳美人を我慢できずにメチャクチャ痴●してやったら… まさかの俺のテクの虜に。 五条恋</t>
+          <t>JUR-237 [中文字幕]「風俗経験なし」と言っていた婚約者が凄テク過ぎて疑心暗鬼にヌカれまくる僕。 明里つむぎ</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-506</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IPZZ-507 [中文字幕] もうセックスなしでは生きていけない… 絶頂イキ 197回 マ×コ痙攣 2255回 鬼ピストン 3686回 快感潮 測定不能 絶頂覚醒 藤咲舞</t>
+          <t>IPZZ-506 [中文字幕] 美人家庭教師みつり先生の接吻レクチャー個人レッスン 長浜みつり</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DGCEMD-515</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SONE-636 [中文字幕] 真面目で清純な水泳部エースも媚薬エステの前では理性保てず下品にイキ堕ち 洗練されたアスリートボディが際立つ卑猥な競泳水着を着せられて…。 夏空りか</t>
+          <t>DGCEMD-515 ★配信限定！特典映像付★凄テクで男を飼い慣らす女はこの世に存在する 愛瀬ゆうり</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>FPRE-149</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>JUR-188 [中文字幕] W秘書 どM社長を芯まで操る過密なブラック搾精スケジューリング</t>
+          <t>FPRE-149 [中文字幕] 結婚5年目！失禁ヌードモデルNTR 上司に爆乳ボデイを喰われ悦ぶ妻の衝撃浮気映像 宝田もなみ</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-258</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JUR-240 [中文字幕]『週3日、妻とSEXをしている。』と自慢してきた友人から週5日、毎回4発、合計20発中出ししてそいつの妻を寝取ってやった。 藤かんな</t>
+          <t>SONE-258 [中文字幕] 今いちばん抱きたいカラダ 川越にこ、理性吹き飛ぶ。[禁欲×媚薬漬け]童顔悶える異常絶頂アクメ</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-627</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROE-315 [中文字幕] セックスの相性抜群なパート妻?美希さんと時間限定超濃密なショートタイム密会 僕は、毎回チ〇ポの萎える暇がないほど時短射精をしています…。 赤井美希</t>
+          <t>SONE-627 [中文字幕] 毎朝同じ車両に乗るJcup巨乳美人を我慢できずにメチャクチャ痴●してやったら… まさかの俺のテクの虜に。 五条恋</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-507</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GENU-019 [中文字幕] 豊満×爆乳 淫乱ドスケベW熟女二輪車ソープ発射無制限中出しぶっかけSP！！</t>
+          <t>IPZZ-507 [中文字幕] もうセックスなしでは生きていけない… 絶頂イキ 197回 マ×コ痙攣 2255回 鬼ピストン 3686回 快感潮 測定不能 絶頂覚醒 藤咲舞</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-636</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DASS-570 [中文字幕] 痴姦親父の寸止めリモバイ調教に発情野外べろチュー所構わず膝ガクガク小鹿アクメって自ら求める中出し堕ち性交 倉本すみれ</t>
+          <t>SONE-636 [中文字幕] 真面目で清純な水泳部エースも媚薬エステの前では理性保てず下品にイキ堕ち 洗練されたアスリートボディが際立つ卑猥な競泳水着を着せられて…。 夏空りか</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-188</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VEC-687 [中文字幕] バイト先で働く美しい人妻を家に連れ込み中出しセックス 小野坂ゆいか</t>
+          <t>JUR-188 [中文字幕] W秘書 どM社長を芯まで操る過密なブラック搾精スケジューリング</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-240</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DASS-574 [中文字幕] 男嫌いなスレンダー美乳の連れ子に媚薬を●ませて一週間。子宮が疼き、理性を失った娘は、嫌がりながらも俺の巨根を求めるようになった。 東條なつ</t>
+          <t>JUR-240 [中文字幕]『週3日、妻とSEXをしている。』と自慢してきた友人から週5日、毎回4発、合計20発中出ししてそいつの妻を寝取ってやった。 藤かんな</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ROE-315</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FSDSS-974 [中文字幕] AV制作アシスタントに密着 パワハラ上司やセクハラ男優の無茶振りにも健気に働く女性AD 吉高寧々</t>
+          <t>ROE-315 [中文字幕] セックスの相性抜群なパート妻?美希さんと時間限定超濃密なショートタイム密会 僕は、毎回チ〇ポの萎える暇がないほど時短射精をしています…。 赤井美希</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>GENU-019</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DASS-581 [中文字幕] エアコンが壊れた蒸し猛暑日。不意にみた旦那以外の勃起チ○ポに欲情して、、汗だく体液交尾に溺れていく欲求不満の田舎若妻 松本いちか</t>
+          <t>GENU-019 [中文字幕] 豊満×爆乳 淫乱ドスケベW熟女二輪車ソープ発射無制限中出しぶっかけSP！！</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-570</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IPZZ-501 [中文字幕] 人妻自宅エステサロン 醜いゲス隣人の絶倫チ〇ポで何度もイカされてしまった美人エステティシャン 桃乃木かな</t>
+          <t>DASS-570 [中文字幕] 痴姦親父の寸止めリモバイ調教に発情野外べろチュー所構わず膝ガクガク小鹿アクメって自ら求める中出し堕ち性交 倉本すみれ</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>VEC-687</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DASS-601 [中文字幕] 派遣マッサージ師にきわどい秘部を触られすぎて、快楽に耐え切れず寝取られました。 巴ひかり</t>
+          <t>VEC-687 [中文字幕] バイト先で働く美しい人妻を家に連れ込み中出しセックス 小野坂ゆいか</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-574</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NSFS-360 [中文字幕] ザ?和姦20 犯●れた男に狂う妻 西野絵美</t>
+          <t>DASS-574 [中文字幕] 男嫌いなスレンダー美乳の連れ子に媚薬を●ませて一週間。子宮が疼き、理性を失った娘は、嫌がりながらも俺の巨根を求めるようになった。 東條なつ</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>FSDSS-974</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NSFS-362 [中文字幕] 上司の前で??私の妻がヌードモデルになりました。14 徳永しおり</t>
+          <t>FSDSS-974 [中文字幕] AV制作アシスタントに密着 パワハラ上司やセクハラ男優の無茶振りにも健気に働く女性AD 吉高寧々</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-581</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KSBJ-366 [中文字幕] 家出妻 居候をさせてもらう条件は中出し肉便器 蒼山愛奈</t>
+          <t>DASS-581 [中文字幕] エアコンが壊れた蒸し猛暑日。不意にみた旦那以外の勃起チ○ポに欲情して、、汗だく体液交尾に溺れていく欲求不満の田舎若妻 松本いちか</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-501</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NUKA-74 [中文字幕] 抜かずの六発中出し 母と息子の密着交尾 岸本藍花</t>
+          <t>IPZZ-501 [中文字幕] 人妻自宅エステサロン 醜いゲス隣人の絶倫チ〇ポで何度もイカされてしまった美人エステティシャン 桃乃木かな</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-601</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MKMP-615 [中文字幕]「あなた、ごめんなさい」人妻屈辱エステ研修 旦那がリストラされた人妻はセクハラ研修でスケベ親父に嬲られイカされ慰み物と化す 都月るいさ</t>
+          <t>DASS-601 [中文字幕] 派遣マッサージ師にきわどい秘部を触られすぎて、快楽に耐え切れず寝取られました。 巴ひかり</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NSFS-360</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>XVSR-800 [中文字幕] 森沢かなの我慢できない極上騎乗位中出しSEX</t>
+          <t>NSFS-360 [中文字幕] ザ?和姦20 犯●れた男に狂う妻 西野絵美</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NSFS-362</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MKMP-616 [中文字幕] 実家に帰省したら地味な元同級生と再会…成長した隠しきれない巨乳がエロ過ぎて、押しに弱い彼女と毎日何度もハメまくってます。 鳳みゆ</t>
+          <t>NSFS-362 [中文字幕] 上司の前で??私の妻がヌードモデルになりました。14 徳永しおり</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>KSBJ-366</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WAWA-032 [中文字幕] 濡れた小麦肌の美少女とびしょびしょイキまくり中出しSEX！ 前乃菜々</t>
+          <t>KSBJ-366 [中文字幕] 家出妻 居候をさせてもらう条件は中出し肉便器 蒼山愛奈</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NUKA-74</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NACR-917 [中文字幕] 快楽エステルーム キモおじの凄テクに快感を覚えてしまった私 秋元さちか</t>
+          <t>NUKA-74 [中文字幕] 抜かずの六発中出し 母と息子の密着交尾 岸本藍花</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MKMP-615</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>XVSR-801 [中文字幕] 淫口 咥えたチ〇コは数万本！？凄テクフェラチオで止まらない射精！！斎藤あみり</t>
+          <t>MKMP-615 [中文字幕]「あなた、ごめんなさい」人妻屈辱エステ研修 旦那がリストラされた人妻はセクハラ研修でスケベ親父に嬲られイカされ慰み物と化す 都月るいさ</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>XVSR-800</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EUUD-61 [中文字幕] 50代！40代！！30代！！！三世代たれちち熟女とボインハーレム中出しSEX</t>
+          <t>XVSR-800 [中文字幕] 森沢かなの我慢できない極上騎乗位中出しSEX</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MKMP-616</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>XVSR-802 [中文字幕] AV女優が完全に「素」のプライベート状態、柏木こなつをハメドリッ！</t>
+          <t>MKMP-616 [中文字幕] 実家に帰省したら地味な元同級生と再会…成長した隠しきれない巨乳がエロ過ぎて、押しに弱い彼女と毎日何度もハメまくってます。 鳳みゆ</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>WAWA-032</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NACR-919 [中文字幕] 夫の兄と私のヌード撮影会 ファインダー越しに裸を見られることに快楽を覚えた私… 東凛</t>
+          <t>WAWA-032 [中文字幕] 濡れた小麦肌の美少女とびしょびしょイキまくり中出しSEX！ 前乃菜々</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NACR-917</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HOMA-150 [中文字幕] 彼女が不在中。密かにずっと大好きだった親友の彼氏を寝取ってヤリまくった32時間 宮城りえ</t>
+          <t>NACR-917 [中文字幕] 快楽エステルーム キモおじの凄テクに快感を覚えてしまった私 秋元さちか</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>XVSR-801</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LUCY-006 [中文字幕] 彼女の姉に《彼女が酔い潰れている間に》寝取られてしまった僕…。 那賀崎ゆきね</t>
+          <t>XVSR-801 [中文字幕] 淫口 咥えたチ〇コは数万本！？凄テクフェラチオで止まらない射精！！斎藤あみり</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>EUUD-61</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NACR-921 [中文字幕] メンズエステに行ったらまさかのエリート女子社員が！？立場を悪用しタダマン女にしてやった！！ 澪川はるか</t>
+          <t>EUUD-61 [中文字幕] 50代！40代！！30代！！！三世代たれちち熟女とボインハーレム中出しSEX</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>XVSR-802</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MTALL-098 [中文字幕] ご主人様が勃起したら即性処理巨乳汗だく全裸メイドにチ○ポ見張られ性活 五日市芽依 月野かすみ</t>
+          <t>XVSR-802 [中文字幕] AV女優が完全に「素」のプライベート状態、柏木こなつをハメドリッ！</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NACR-919</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MIAB-317 [中文字幕] 不登校オタク生徒をノーパンデカ尻で誘惑し蒸れたパンスト美脚アナルを嗅がせて痴女る熱ケツ女教師の生ハメ20発生活指導 森日向子</t>
+          <t>NACR-919 [中文字幕] 夫の兄と私のヌード撮影会 ファインダー越しに裸を見られることに快楽を覚えた私… 東凛</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HOMA-150</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MIDV-999 我那个性骚扰老板，我恨透了他，知道了我的弱点，于是我们在一次出差时同住一间房。即使太阳已经升起两次，他还是继续在我体内射了十次，我终于屈服了。 ..新ありな</t>
+          <t>HOMA-150 [中文字幕] 彼女が不在中。密かにずっと大好きだった親友の彼氏を寝取ってヤリまくった32時間 宮城りえ</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>LUCY-006</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MEYD-880 修学旅行生を狙う美脚人妻キャビンアテンダント パンスト誘惑＆杭打ちピストンでイキまくる！ 宮西ひかる</t>
+          <t>LUCY-006 [中文字幕] 彼女の姉に《彼女が酔い潰れている間に》寝取られてしまった僕…。 那賀崎ゆきね</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>NACR-921</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SONE-012 [中文字幕] パイズリで発情する淫乱メイドに仕立てられた神乳Jcupお姉さん 凪ひかる</t>
+          <t>NACR-921 [中文字幕] メンズエステに行ったらまさかのエリート女子社員が！？立場を悪用しタダマン女にしてやった！！ 澪川はるか</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MTALL-098</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MIDV-640 [中文字幕] 先輩ウチで飲み直しませんか？ 後輩女子社員のパンスト誘惑に甘え ささやき淫語手コキで焦らされ感度高まり始発後もハメ狂った延長交尾17発 宮下玲奈</t>
+          <t>MTALL-098 [中文字幕] ご主人様が勃起したら即性処理巨乳汗だく全裸メイドにチ○ポ見張られ性活 五日市芽依 月野かすみ</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIAB-317</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SONE-008 [中文字幕] 思春期男子は濡れた黒パンスト女教師の夢を見る～突然の豪雨で帰宅困難になった担任と生徒の一夜～ 星宮一花</t>
+          <t>MIAB-317 [中文字幕] 不登校オタク生徒をノーパンデカ尻で誘惑し蒸れたパンスト美脚アナルを嗅がせて痴女る熱ケツ女教師の生ハメ20発生活指導 森日向子</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDV-999</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[4KUHD] MEYD-927 「やめてっ孕んじゃう…！」夫が海外出張中の20日間、夫の部下に毎日中出しされています。 天海つばさ</t>
+          <t>MIDV-999 我那个性骚扰老板，我恨透了他，知道了我的弱点，于是我们在一次出差时同住一间房。即使太阳已经升起两次，他还是继续在我体内射了十次，我终于屈服了。 ..新ありな</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-880</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SONE-553 与皮肤白皙的少女进行两天一夜的温泉约会，以及她赤裸裸的SEX 白上咲花</t>
+          <t>MEYD-880 修学旅行生を狙う美脚人妻キャビンアテンダント パンスト誘惑＆杭打ちピストンでイキまくる！ 宮西ひかる</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-012</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>START-053 旦那の連れ子に溜まり切った性の捌け口として性欲処理玩具にされました。あまりの絶倫勃起チ○ポに夫とするより感じてしまい… 小湊よつ葉</t>
+          <t>SONE-012 [中文字幕] パイズリで発情する淫乱メイドに仕立てられた神乳Jcupお姉さん 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDV-640</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SONE-096 [中文字幕] 凪ひかる 1周年記念作品 おっぱい大好きファン大集合！神乳Jカップで暴発パイズリ＆素人チ●ポ大乱交13発射スペシャル</t>
+          <t>MIDV-640 [中文字幕] 先輩ウチで飲み直しませんか？ 後輩女子社員のパンスト誘惑に甘え ささやき淫語手コキで焦らされ感度高まり始発後もハメ狂った延長交尾17発 宮下玲奈</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-008</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SONE-622 [中文字幕] 若き囮捜査官、媚薬漬け痴●に完全敗北。 明日葉みつは</t>
+          <t>SONE-008 [中文字幕] 思春期男子は濡れた黒パンスト女教師の夢を見る～突然の豪雨で帰宅困難になった担任と生徒の一夜～ 星宮一花</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-927</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HMN-633 当我醒来时，讨厌的老板就在我面前......他给了我春药，我们在同一个房间里做爱直到早上。 小坂七香</t>
+          <t>[4KUHD] MEYD-927 「やめてっ孕んじゃう…！」夫が海外出張中の20日間、夫の部下に毎日中出しされています。 天海つばさ</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-553</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SONE-582 超级可爱狡猾的学生！作为她的班主任，我无法抵抗她仰视的诱惑 川越にこ (@kawagoeniko)番号作品</t>
+          <t>SONE-553 与皮肤白皙的少女进行两天一夜的温泉约会，以及她赤裸裸的SEX 白上咲花</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-053</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SSIS-858 [中文字幕] 教師のくせにクソデカなエロ乳してんだから俺らに犯●れて当然って、分かるよね？ 凪ひかる</t>
+          <t>START-053 旦那の連れ子に溜まり切った性の捌け口として性欲処理玩具にされました。あまりの絶倫勃起チ○ポに夫とするより感じてしまい… 小湊よつ葉</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-096</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IPZZ-514 [中文字幕] 禁欲解放＆媚薬覚醒 Wの効果で超キメセク 白雲あめ</t>
+          <t>SONE-096 [中文字幕] 凪ひかる 1周年記念作品 おっぱい大好きファン大集合！神乳Jカップで暴発パイズリ＆素人チ●ポ大乱交13発射スペシャル</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-622</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SONE-635 [中文字幕] 石田佳蓮、解禁巨根FUCK！！！ 地上波アイドルおま●こ崩壊</t>
+          <t>SONE-622 [中文字幕] 若き囮捜査官、媚薬漬け痴●に完全敗北。 明日葉みつは</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HMN-633</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SONE-620 [中文字幕] 服越しでも分かるKカップが強●魔の目に留まり、拉致られ、大量媚薬に漬けられオーバードーズ！ ペニス中毒トリップ大乱交 凪ひかる</t>
+          <t>HMN-633 当我醒来时，讨厌的老板就在我面前......他给了我春药，我们在同一个房间里做爱直到早上。 小坂七香</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-582</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>JUQ-532 [中文字幕] Madonna20周年記念！！豪華専属の共演作品！！ 修学旅行の下見先で先輩女教師2人と相部屋…一泊二日で計10発、夜が明けるまで何度も何度も抜かれまくった僕</t>
+          <t>SONE-582 超级可爱狡猾的学生！作为她的班主任，我无法抵抗她仰视的诱惑 川越にこ (@kawagoeniko)番号作品</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SSIS-858</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ABF-087 [中文字幕][抽選でサイン入り衣装プレゼント実施中]俺の従順ペット候補生 06 涼森れむ[MGSだけのおまけ映像付き+10分]</t>
+          <t>SSIS-858 [中文字幕] 教師のくせにクソデカなエロ乳してんだから俺らに犯●れて当然って、分かるよね？ 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-514</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MEYD-951 [中文字幕] 田舎に帰省してきた発情期痴女（兄嫁）とドロドロSEXをしたあの夏ー。[汗だくだく、ザーメンドクドク] 夢実かなえ</t>
+          <t>IPZZ-514 [中文字幕] 禁欲解放＆媚薬覚醒 Wの効果で超キメセク 白雲あめ</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-635</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MEYD-931 [中文字幕]「今日は、中に出していいよ。」 寿退社をして地元に戻った憧れの女上司から出張中に連絡が来てそのままお酒を飲んで僕が泊まっているホテルで朝まで中出しSEXをしまくったー。 夢実かなえ</t>
+          <t>SONE-635 [中文字幕] 石田佳蓮、解禁巨根FUCK！！！ 地上波アイドルおま●こ崩壊</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-620</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SONE-587 如此美丽的女孩的口交和快乐的大量喷射 榊原萌（@moe._.nyanvv）番号作品</t>
+          <t>SONE-620 [中文字幕] 服越しでも分かるKカップが強●魔の目に留まり、拉致られ、大量媚薬に漬けられオーバードーズ！ ペニス中毒トリップ大乱交 凪ひかる</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUQ-532</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SONE-182 [中文字幕] 終電を逃したバイト先店長と女子大生はその後…ホテルで朝まで甘くて切ない性交に溺れてしまった、イケない純愛相部屋NTR 三田真鈴</t>
+          <t>JUQ-532 [中文字幕] Madonna20周年記念！！豪華専属の共演作品！！ 修学旅行の下見先で先輩女教師2人と相部屋…一泊二日で計10発、夜が明けるまで何度も何度も抜かれまくった僕</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-087</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[4KUHD] CAWD-628 2ヶ月セックスお預けされフライト前からムラムラ限界…渡航先に着くなり機長とホテル直行し早朝フライトまでの 12 時間ケダモノみたいにハメ狂った巨乳キャビンアテンダント 伊藤舞雪</t>
+          <t>ABF-087 [中文字幕][抽選でサイン入り衣装プレゼント実施中]俺の従順ペット候補生 06 涼森れむ[MGSだけのおまけ映像付き+10分]</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-951</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-089 男を虜にして離さない天性のモテSEXを持つ川越にこの初体験3本番</t>
+          <t>MEYD-951 [中文字幕] 田舎に帰省してきた発情期痴女（兄嫁）とドロドロSEXをしたあの夏ー。[汗だくだく、ザーメンドクドク] 夢実かなえ</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-931</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-350 終電逃してセクハラ店長とまさかの相部屋に…大嫌いなのに感じ、大嫌いなのに濡れ、大嫌いなのに喘ぎ、大好きな彼氏にウソをついてハメまくってしまった 川越にこ</t>
+          <t>MEYD-931 [中文字幕]「今日は、中に出していいよ。」 寿退社をして地元に戻った憧れの女上司から出張中に連絡が来てそのままお酒を飲んで僕が泊まっているホテルで朝まで中出しSEXをしまくったー。 夢実かなえ</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-587</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-088 快楽で瞳トロける天性のモテSEX 新人NO.1STYLE 川越にこ AVデビュー</t>
+          <t>SONE-587 如此美丽的女孩的口交和快乐的大量喷射 榊原萌（@moe._.nyanvv）番号作品</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-182</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SONE-197 [中文字幕]「にこ、いっぱい射精して欲しいな」ひと時も目を離さず照れるほどに顔が近い あざとく全てを受け入れてくれる全肯定エステ 川越にこ</t>
+          <t>SONE-182 [中文字幕] 終電を逃したバイト先店長と女子大生はその後…ホテルで朝まで甘くて切ない性交に溺れてしまった、イケない純愛相部屋NTR 三田真鈴</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>CAWD-628</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SONE-194 [中文字幕] 激イキ222回！痙攣5500回！イキ潮2700cc！ 天性のモテSEX 川越にこ エロス覚醒 はじめての大・痙・攣スペシャル</t>
+          <t>[4KUHD] CAWD-628 2ヶ月セックスお預けされフライト前からムラムラ限界…渡航先に着くなり機長とホテル直行し早朝フライトまでの 12 時間ケダモノみたいにハメ狂った巨乳キャビンアテンダント 伊藤舞雪</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-089</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SONE-301 [中文字幕] ―アイスクリームは、おじさんの味がした― 中年オヤジの唾液にまみれ、粘液を絡ませ、汗だくなカラダを舐めずり合った制服の記憶。 川越にこ</t>
+          <t>[4KUHD] SONE-089 男を虜にして離さない天性のモテSEXを持つ川越にこの初体験3本番</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-350</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SONE-150 [中文字幕] 照れて、惚れて、イキ止まない。ホテルでじっくりねっとり何度も何度も求め合う丸一日中ヤリまくり濃密デート 川越にこ</t>
+          <t>[4KUHD] SONE-350 終電逃してセクハラ店長とまさかの相部屋に…大嫌いなのに感じ、大嫌いなのに濡れ、大嫌いなのに喘ぎ、大好きな彼氏にウソをついてハメまくってしまった 川越にこ</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-088</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SONE-350 [中文字幕] 終電逃してセクハラ店長とまさかの相部屋に…大嫌いなのに感じ、大嫌いなのに濡れ、大嫌いなのに喘ぎ、大好きな彼氏にウソをついてハメまくってしまった 川越にこ</t>
+          <t>[4KUHD] SONE-088 快楽で瞳トロける天性のモテSEX 新人NO.1STYLE 川越にこ AVデビュー</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-197</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SONE-487 [中文字幕] 川越にこにベロキスで寝取られたい！彼女がいても仕事中でもお構いなしにチュッチュ誘惑してくるあざとい後輩に僕のチ●ポは我慢の限界！</t>
+          <t>SONE-197 [中文字幕]「にこ、いっぱい射精して欲しいな」ひと時も目を離さず照れるほどに顔が近い あざとく全てを受け入れてくれる全肯定エステ 川越にこ</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-194</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SONE-621 [中文字幕] 絶品乳JD陰湿レ●プ 巨乳マニアの中年男たちに弱み握られ、ひたすら揉まれ、舐められ、シゴかされ、ブッカケられ、おっぱいグチャドロにされたHカップ女子大生の記録。 小日向みゆう</t>
+          <t>SONE-194 [中文字幕] 激イキ222回！痙攣5500回！イキ潮2700cc！ 天性のモテSEX 川越にこ エロス覚醒 はじめての大・痙・攣スペシャル</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-301</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>IPZZ-518 [中文字幕] 噴いてイッて精子浴びて… 初体験の大大大絶頂3本番スペシャル！！ 止めどない絶頂乱舞！！＆オール顔射！！ 花守夏歩</t>
+          <t>SONE-301 [中文字幕] ―アイスクリームは、おじさんの味がした― 中年オヤジの唾液にまみれ、粘液を絡ませ、汗だくなカラダを舐めずり合った制服の記憶。 川越にこ</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-150</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>START-174-V 初めてのナマ中出し解禁 気持ち良すぎて痙攣が止まらない大絶頂セックス！ 星乃莉子[特典版]</t>
+          <t>SONE-150 [中文字幕] 照れて、惚れて、イキ止まない。ホテルでじっくりねっとり何度も何度も求め合う丸一日中ヤリまくり濃密デート 川越にこ</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-350</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>START-095 院内に夜な夜な響く喘ぎ声の実態は！？ 話題の美人看護師を極秘取材 笑顔の杭打ち騎乗位と涎たっぷりフェラで入院患者をヌキまくる隠れ痴女ナース 星乃莉子</t>
+          <t>SONE-350 [中文字幕] 終電逃してセクハラ店長とまさかの相部屋に…大嫌いなのに感じ、大嫌いなのに濡れ、大嫌いなのに喘ぎ、大好きな彼氏にウソをついてハメまくってしまった 川越にこ</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-487</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>STARS-983 [中文字幕] 中途入社のOLは気弱でノーマル性癖な同僚たちをドSに目覚めさせてしまうほどのイジメられたがりドM女でした。 星乃莉子</t>
+          <t>SONE-487 [中文字幕] 川越にこにベロキスで寝取られたい！彼女がいても仕事中でもお構いなしにチュッチュ誘惑してくるあざとい後輩に僕のチ●ポは我慢の限界！</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-621</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[4KUHD+HD] START-028 [個撮配信]脅迫レ×プ 個人撮影で小遣い稼ぎする女子大生の弱みにつけ込みライブSEX配信 星乃莉子</t>
+          <t>SONE-621 [中文字幕] 絶品乳JD陰湿レ●プ 巨乳マニアの中年男たちに弱み握られ、ひたすら揉まれ、舐められ、シゴかされ、ブッカケられ、おっぱいグチャドロにされたHカップ女子大生の記録。 小日向みゆう</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-518</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>STARS-733 性欲解放ー巨根・潮吹き・拘束ピストン 限界までイカされて見えた’絶頂の向こう側’ 星乃莉子【圧倒的4K映像でヌク！】</t>
+          <t>IPZZ-518 [中文字幕] 噴いてイッて精子浴びて… 初体験の大大大絶頂3本番スペシャル！！ 止めどない絶頂乱舞！！＆オール顔射！！ 花守夏歩</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-174-V</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>STARS-963 [中文字幕] リコピンにずっと見つめられながら射精連発！超キュートな5コス＆ニコニコ笑顔で最高のオナニーをお手伝い 星乃莉子[圧倒的4K映像でヌク！]</t>
+          <t>START-174-V 初めてのナマ中出し解禁 気持ち良すぎて痙攣が止まらない大絶頂セックス！ 星乃莉子[特典版]</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-095</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>START-194 [中文字幕] 激務な報道局で働くボクが欲求不満な美人ディレクターを刺激したらエロスイッチを入れてしまい何度も誘惑されて…シャワーも浴びずに編集所に籠って汗だくセックスに明け暮れた 小湊よつ葉</t>
+          <t>START-095 院内に夜な夜な響く喘ぎ声の実態は！？ 話題の美人看護師を極秘取材 笑顔の杭打ち騎乗位と涎たっぷりフェラで入院患者をヌキまくる隠れ痴女ナース 星乃莉子</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>STARS-983</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>START-135-V 人生初のナマ中出し解禁 小湊よつ葉[特典映像収録版]</t>
+          <t>STARS-983 [中文字幕] 中途入社のOLは気弱でノーマル性癖な同僚たちをドSに目覚めさせてしまうほどのイジメられたがりドM女でした。 星乃莉子</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-028</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SONE-490  我的青梅竹马比我还小太调皮了，被男朋友甩了，孤独的她乞求我的公鸡 倉木華</t>
+          <t>[4KUHD+HD] START-028 [個撮配信]脅迫レ×プ 個人撮影で小遣い稼ぎする女子大生の弱みにつけ込みライブSEX配信 星乃莉子</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>STARS-733</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SONE-304 激イキ138回！痙攣5590回！イキ潮2000cc！ 長身美人エロス覚醒 はじめての大?痙?攣スペシャル 倉木華</t>
+          <t>STARS-733 性欲解放ー巨根・潮吹き・拘束ピストン 限界までイカされて見えた’絶頂の向こう側’ 星乃莉子【圧倒的4K映像でヌク！】</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>STARS-963</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MIDV-231 [中文字幕] やっぱり、妻が好きだ！倦怠期だった僕ら夫婦が久しぶりにSEXしたら&amp;#8230;やっぱり体の相性抜群で朝まで何度も求め合った！！ 神宮寺ナオ</t>
+          <t>STARS-963 [中文字幕] リコピンにずっと見つめられながら射精連発！超キュートな5コス＆ニコニコ笑顔で最高のオナニーをお手伝い 星乃莉子[圧倒的4K映像でヌク！]</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-194</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PRED-734  [中文字幕] 浮気調査NTR 仕掛け人（後輩）と2人きりにさせた途端に始まってしまった最ッ低な裏切りセックス 森日向子</t>
+          <t>START-194 [中文字幕] 激務な報道局で働くボクが欲求不満な美人ディレクターを刺激したらエロスイッチを入れてしまい何度も誘惑されて…シャワーも浴びずに編集所に籠って汗だくセックスに明け暮れた 小湊よつ葉</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-135-V</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MEYD-965 [中文字幕] 夫の教え子が受験を終えるその日まで…不倫SEXに溺れた人妻ヌードモデル 椿りか</t>
+          <t>START-135-V 人生初のナマ中出し解禁 小湊よつ葉[特典映像収録版]</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-490</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>JUR-024 [中文字幕] アナタに出逢えた奇跡、一生忘れられなくなるイイオンナ―。 2025年、最初で最高のMadonna超大型新人―。誕生 新妻ゆうか 31歳 AV DEBUT 一瞬、一瞬、すべてが美しいHカップ人妻―。</t>
+          <t>SONE-490  我的青梅竹马比我还小太调皮了，被男朋友甩了，孤独的她乞求我的公鸡 倉木華</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-304</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MIDV-983 [中文字幕] FRUITS J 新人 現役女子大生 専属 三木環奈 AV Debut！</t>
+          <t>SONE-304 激イキ138回！痙攣5590回！イキ潮2000cc！ 長身美人エロス覚醒 はじめての大?痙?攣スペシャル 倉木華</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDV-231</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[4KUHD]SONE-042 新人NO.1STYLE 身長172cm 9.5頭身スタイル少女 小坂七香 AVデビュー</t>
+          <t>MIDV-231 [中文字幕] やっぱり、妻が好きだ！倦怠期だった僕ら夫婦が久しぶりにSEXしたら&amp;#8230;やっぱり体の相性抜群で朝まで何度も求め合った！！ 神宮寺ナオ</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-734</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MIDV-778 [中文字幕] ある夏の熱帯夜、ママに内緒で義父から布団の中で種付けプレスされて早5年、まさか大人になっても夜●い中出しが続くなんて… 三浜唯</t>
+          <t>PRED-734  [中文字幕] 浮気調査NTR 仕掛け人（後輩）と2人きりにさせた途端に始まってしまった最ッ低な裏切りセックス 森日向子</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-965</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MIMK-197 [中文字幕] だいたいなんでもシてくれる家事代行の友梨恵さん むちっとドスケベボディのJカップ美人がシモのお世話も追加サービス JULIA</t>
+          <t>MEYD-965 [中文字幕] 夫の教え子が受験を終えるその日まで…不倫SEXに溺れた人妻ヌードモデル 椿りか</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MIMK-198  [中文字幕] 久々のSEXチャンス到来で性衝動が未知なる暴走！限界ドスケベナース 売上1.7万部超 性欲ツヨツヨ系同人作品実写化 夢実かなえ</t>
+          <t>JUR-024 [中文字幕] アナタに出逢えた奇跡、一生忘れられなくなるイイオンナ―。 2025年、最初で最高のMadonna超大型新人―。誕生 新妻ゆうか 31歳 AV DEBUT 一瞬、一瞬、すべてが美しいHカップ人妻―。</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDV-983</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>WAAA-473 [中文字幕]「もう君は生徒じゃないからね」 巨乳先生に三年間狙われていた童貞早漏の僕が卒業した瞬間3日で30発抜かれまくった…。 JULIA</t>
+          <t>MIDV-983 [中文字幕] FRUITS J 新人 現役女子大生 専属 三木環奈 AV Debut！</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-042</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ABW-294 [中文字幕] 絶対的下から目線 おもてなし庵 可憐小町 七嶋舞 22[MGSだけのおまけ映像付き+15分]</t>
+          <t>[4KUHD]SONE-042 新人NO.1STYLE 身長172cm 9.5頭身スタイル少女 小坂七香 AVデビュー</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDV-778</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>MIRD-252 [中文字幕] セクシーランジェリーメーカーに入社したら男は僕ひとり朝から晩までクンニ奉仕 仕事内容:勤務中の女子社員に呼ばれたらいつでもどこでもおま●こ即なめ 久和原せいら 夢川りあ 斉藤月乃 真白みのり 福田もも 篠宮ねね</t>
+          <t>MIDV-778 [中文字幕] ある夏の熱帯夜、ママに内緒で義父から布団の中で種付けプレスされて早5年、まさか大人になっても夜●い中出しが続くなんて… 三浜唯</t>
         </is>
       </c>
     </row>
